--- a/src/SFA/wwwroot/resources/users/User.xlsx
+++ b/src/SFA/wwwroot/resources/users/User.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEANR\OneDrive\Documents\GitHub\gmdeputation\src\SFA\wwwroot\resources\users\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6F3B79-0A35-4963-ADE8-6C634338E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="11415" windowHeight="5145"/>
+    <workbookView xWindow="30510" yWindow="3525" windowWidth="22785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -27,128 +33,41 @@
     <t>City</t>
   </si>
   <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
     <t>Zip Code</t>
   </si>
   <si>
-    <t>Section Name</t>
-  </si>
-  <si>
-    <t>District Code</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work </t>
-  </si>
-  <si>
     <t>Cell Phone</t>
   </si>
   <si>
     <t>Middle Name</t>
   </si>
   <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Croteau</t>
-  </si>
-  <si>
-    <t>Pastor Section 3</t>
-  </si>
-  <si>
-    <t>(641) 856-9006</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>(319) 521-3630</t>
-  </si>
-  <si>
-    <t>stafchurch@gmail.com</t>
-  </si>
-  <si>
-    <t>440 10th St</t>
-  </si>
-  <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>52302</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>Pastor</t>
-  </si>
-  <si>
-    <t>(559) 687-8741</t>
-  </si>
-  <si>
-    <t>Nathaniel</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>FeMale</t>
-  </si>
-  <si>
-    <t>111 S Sales St, 9527 Highway 151</t>
-  </si>
-  <si>
-    <t>Cedar Rapids</t>
-  </si>
-  <si>
-    <t>50021-6533</t>
-  </si>
-  <si>
-    <t>D050</t>
-  </si>
-  <si>
-    <t>Atlantic Section 4</t>
-  </si>
-  <si>
-    <t>mjdaley948@gmail.com</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>(319) 863-9060</t>
-  </si>
-  <si>
-    <t>(559) 897-1449</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Section ID</t>
+  </si>
+  <si>
+    <t>State ID</t>
+  </si>
+  <si>
+    <t>Role ID</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -240,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,151 +444,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -635,24 +516,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/SFA/wwwroot/resources/users/User.xlsx
+++ b/src/SFA/wwwroot/resources/users/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEANR\OneDrive\Documents\GitHub\gmdeputation\src\SFA\wwwroot\resources\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6F3B79-0A35-4963-ADE8-6C634338E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F904D6-6253-4CC9-968D-AFDC8CF7D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="3525" windowWidth="22785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,13 @@
     <t>Section ID</t>
   </si>
   <si>
-    <t>State ID</t>
-  </si>
-  <si>
     <t>Role ID</t>
   </si>
   <si>
     <t>Work Phone</t>
+  </si>
+  <si>
+    <t>State Alias</t>
   </si>
 </sst>
 </file>
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,9 +165,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,26 +200,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,26 +235,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +414,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,16 +460,16 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
